--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -424,25 +424,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>A110772</v>
+        <v>A110626</v>
       </c>
       <c r="B2" t="str">
-        <v>Niel Berto</v>
+        <v>Nelson Galapia</v>
       </c>
       <c r="C2" t="str">
         <v>Feb 2 2023</v>
       </c>
       <c r="D2" t="str">
-        <v>Mar 02 2023</v>
+        <v>Apr 02 2023</v>
       </c>
       <c r="E2" t="str">
         <v>Monthly</v>
       </c>
       <c r="F2" t="str">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G2" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="str">
         <v>2</v>
@@ -453,16 +453,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>A110626</v>
+        <v>A110599</v>
       </c>
       <c r="B3" t="str">
-        <v>Nelson Galapia</v>
+        <v>Luszo Phil</v>
       </c>
       <c r="C3" t="str">
-        <v>Feb 2 2023</v>
+        <v>Feb 4 2023</v>
       </c>
       <c r="D3" t="str">
-        <v>Apr 02 2023</v>
+        <v>Apr 04 2023</v>
       </c>
       <c r="E3" t="str">
         <v>Monthly</v>
@@ -474,24 +474,24 @@
         <v>3</v>
       </c>
       <c r="H3" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>A110599</v>
+        <v>A110071</v>
       </c>
       <c r="B4" t="str">
-        <v>Luszo Phil</v>
+        <v>John Bert</v>
       </c>
       <c r="C4" t="str">
         <v>Feb 4 2023</v>
       </c>
       <c r="D4" t="str">
-        <v>Mar 04 2023</v>
+        <v>May 04 2023</v>
       </c>
       <c r="E4" t="str">
         <v>Monthly</v>
@@ -500,7 +500,7 @@
         <v>1000</v>
       </c>
       <c r="G4" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" t="str">
         <v>4</v>
@@ -511,16 +511,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>A110071</v>
+        <v>A110751</v>
       </c>
       <c r="B5" t="str">
-        <v>John Bert</v>
+        <v>Glen Bush</v>
       </c>
       <c r="C5" t="str">
         <v>Feb 4 2023</v>
       </c>
       <c r="D5" t="str">
-        <v>Mar 04 2023</v>
+        <v>Apr 04 2023</v>
       </c>
       <c r="E5" t="str">
         <v>Monthly</v>
@@ -529,7 +529,7 @@
         <v>1000</v>
       </c>
       <c r="G5" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="str">
         <v>4</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>A110751</v>
+        <v>A110476</v>
       </c>
       <c r="B6" t="str">
-        <v>Glen Bush</v>
+        <v>Kelvin Dough</v>
       </c>
       <c r="C6" t="str">
         <v>Feb 4 2023</v>
@@ -569,16 +569,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>A110476</v>
+        <v>A110105</v>
       </c>
       <c r="B7" t="str">
-        <v>Kelvin Dough</v>
+        <v>Bibo Toke</v>
       </c>
       <c r="C7" t="str">
         <v>Feb 4 2023</v>
       </c>
       <c r="D7" t="str">
-        <v>Mar 04 2023</v>
+        <v>Apr 04 2023</v>
       </c>
       <c r="E7" t="str">
         <v>Monthly</v>
@@ -587,7 +587,7 @@
         <v>1000</v>
       </c>
       <c r="G7" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="str">
         <v>4</v>
@@ -598,10 +598,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>A110105</v>
+        <v>A110899</v>
       </c>
       <c r="B8" t="str">
-        <v>Bibo Toke</v>
+        <v>Jacky Phow</v>
       </c>
       <c r="C8" t="str">
         <v>Feb 4 2023</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>A110899</v>
+        <v>A110927</v>
       </c>
       <c r="B9" t="str">
-        <v>Jacky Phow</v>
+        <v>Kehrk Dohe</v>
       </c>
       <c r="C9" t="str">
         <v>Feb 4 2023</v>
@@ -656,16 +656,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>A110927</v>
+        <v>A110958</v>
       </c>
       <c r="B10" t="str">
-        <v>Kehrk Dohe</v>
+        <v>Glenda</v>
       </c>
       <c r="C10" t="str">
         <v>Feb 4 2023</v>
       </c>
       <c r="D10" t="str">
-        <v>Mar 04 2023</v>
+        <v>Apr 04 2023</v>
       </c>
       <c r="E10" t="str">
         <v>Monthly</v>
@@ -674,7 +674,7 @@
         <v>1000</v>
       </c>
       <c r="G10" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" t="str">
         <v>4</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>A110958</v>
+        <v>A110032</v>
       </c>
       <c r="B11" t="str">
-        <v>Glenda</v>
+        <v>Oriel</v>
       </c>
       <c r="C11" t="str">
         <v>Feb 4 2023</v>
@@ -714,10 +714,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>A110032</v>
+        <v>A110302</v>
       </c>
       <c r="B12" t="str">
-        <v>Oriel</v>
+        <v>Klarence</v>
       </c>
       <c r="C12" t="str">
         <v>Feb 4 2023</v>
@@ -743,10 +743,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>A110302</v>
+        <v>A110174</v>
       </c>
       <c r="B13" t="str">
-        <v>Klarence</v>
+        <v>Karlo</v>
       </c>
       <c r="C13" t="str">
         <v>Feb 4 2023</v>
@@ -772,16 +772,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>A110174</v>
+        <v>A110612</v>
       </c>
       <c r="B14" t="str">
-        <v>Karlo</v>
+        <v>Calbo</v>
       </c>
       <c r="C14" t="str">
         <v>Feb 4 2023</v>
       </c>
       <c r="D14" t="str">
-        <v>Mar 04 2023</v>
+        <v>May 04 2023</v>
       </c>
       <c r="E14" t="str">
         <v>Monthly</v>
@@ -790,7 +790,7 @@
         <v>1000</v>
       </c>
       <c r="G14" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" t="str">
         <v>4</v>
@@ -801,16 +801,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>A110612</v>
+        <v>A110089</v>
       </c>
       <c r="B15" t="str">
-        <v>Calbo</v>
+        <v>Arron</v>
       </c>
       <c r="C15" t="str">
         <v>Feb 4 2023</v>
       </c>
       <c r="D15" t="str">
-        <v>Mar 04 2023</v>
+        <v>Apr 04 2023</v>
       </c>
       <c r="E15" t="str">
         <v>Monthly</v>
@@ -819,7 +819,7 @@
         <v>1000</v>
       </c>
       <c r="G15" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" t="str">
         <v>4</v>
@@ -830,10 +830,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>A110089</v>
+        <v>A110139</v>
       </c>
       <c r="B16" t="str">
-        <v>Arron</v>
+        <v>Kaloy</v>
       </c>
       <c r="C16" t="str">
         <v>Feb 4 2023</v>
@@ -859,16 +859,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>A110139</v>
+        <v>A110350</v>
       </c>
       <c r="B17" t="str">
-        <v>Kaloy</v>
+        <v>Bayaw</v>
       </c>
       <c r="C17" t="str">
         <v>Feb 4 2023</v>
       </c>
       <c r="D17" t="str">
-        <v>Mar 04 2023</v>
+        <v>Apr 04 2023</v>
       </c>
       <c r="E17" t="str">
         <v>Monthly</v>
@@ -877,7 +877,7 @@
         <v>1000</v>
       </c>
       <c r="G17" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" t="str">
         <v>4</v>
@@ -888,10 +888,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>A110350</v>
+        <v>A110584</v>
       </c>
       <c r="B18" t="str">
-        <v>Bayaw</v>
+        <v>Kerloa</v>
       </c>
       <c r="C18" t="str">
         <v>Feb 4 2023</v>
@@ -917,16 +917,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>A110584</v>
+        <v>A110261</v>
       </c>
       <c r="B19" t="str">
-        <v>Kerloa</v>
+        <v>Kelvin</v>
       </c>
       <c r="C19" t="str">
         <v>Feb 4 2023</v>
       </c>
       <c r="D19" t="str">
-        <v>Mar 04 2023</v>
+        <v>Apr 04 2023</v>
       </c>
       <c r="E19" t="str">
         <v>Monthly</v>
@@ -935,7 +935,7 @@
         <v>1000</v>
       </c>
       <c r="G19" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="str">
         <v>4</v>
@@ -946,10 +946,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>A110261</v>
+        <v>A110932</v>
       </c>
       <c r="B20" t="str">
-        <v>Kelvin</v>
+        <v>Isaach</v>
       </c>
       <c r="C20" t="str">
         <v>Feb 4 2023</v>
@@ -975,16 +975,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>A110932</v>
+        <v>A110739</v>
       </c>
       <c r="B21" t="str">
-        <v>Isaach</v>
+        <v>Rembo</v>
       </c>
       <c r="C21" t="str">
         <v>Feb 4 2023</v>
       </c>
       <c r="D21" t="str">
-        <v>Mar 04 2023</v>
+        <v>Apr 04 2023</v>
       </c>
       <c r="E21" t="str">
         <v>Monthly</v>
@@ -993,7 +993,7 @@
         <v>1000</v>
       </c>
       <c r="G21" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="str">
         <v>4</v>
@@ -1004,16 +1004,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>A110739</v>
+        <v>A110860</v>
       </c>
       <c r="B22" t="str">
-        <v>Rembo</v>
+        <v>Rambo</v>
       </c>
       <c r="C22" t="str">
         <v>Feb 4 2023</v>
       </c>
       <c r="D22" t="str">
-        <v>Mar 04 2023</v>
+        <v>Apr 04 2023</v>
       </c>
       <c r="E22" t="str">
         <v>Monthly</v>
@@ -1022,7 +1022,7 @@
         <v>1000</v>
       </c>
       <c r="G22" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" t="str">
         <v>4</v>
@@ -1033,16 +1033,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>A110860</v>
+        <v>A110325</v>
       </c>
       <c r="B23" t="str">
-        <v>Rambo</v>
+        <v>Calslita</v>
       </c>
       <c r="C23" t="str">
         <v>Feb 4 2023</v>
       </c>
       <c r="D23" t="str">
-        <v>Mar 04 2023</v>
+        <v>Apr 04 2023</v>
       </c>
       <c r="E23" t="str">
         <v>Monthly</v>
@@ -1051,7 +1051,7 @@
         <v>1000</v>
       </c>
       <c r="G23" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" t="str">
         <v>4</v>
@@ -1062,10 +1062,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>A110325</v>
+        <v>A110973</v>
       </c>
       <c r="B24" t="str">
-        <v>Calslita</v>
+        <v>Alvdoa</v>
       </c>
       <c r="C24" t="str">
         <v>Feb 4 2023</v>
@@ -1091,16 +1091,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>A110973</v>
+        <v>A110221</v>
       </c>
       <c r="B25" t="str">
-        <v>Alvdoa</v>
+        <v>Aboda</v>
       </c>
       <c r="C25" t="str">
         <v>Feb 4 2023</v>
       </c>
       <c r="D25" t="str">
-        <v>Mar 04 2023</v>
+        <v>Apr 04 2023</v>
       </c>
       <c r="E25" t="str">
         <v>Monthly</v>
@@ -1109,7 +1109,7 @@
         <v>1000</v>
       </c>
       <c r="G25" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" t="str">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>A110221</v>
+        <v>A110215</v>
       </c>
       <c r="B26" t="str">
-        <v>Aboda</v>
+        <v>Selva</v>
       </c>
       <c r="C26" t="str">
         <v>Feb 4 2023</v>
@@ -1149,10 +1149,10 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>A110215</v>
+        <v>A110894</v>
       </c>
       <c r="B27" t="str">
-        <v>Selva</v>
+        <v>Dgete</v>
       </c>
       <c r="C27" t="str">
         <v>Feb 4 2023</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>A110894</v>
+        <v>A110975</v>
       </c>
       <c r="B28" t="str">
-        <v>Dgete</v>
+        <v>Albertdsgd</v>
       </c>
       <c r="C28" t="str">
         <v>Feb 4 2023</v>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>A110975</v>
+        <v>A110886</v>
       </c>
       <c r="B29" t="str">
-        <v>Albertdsgd</v>
+        <v>Dodong</v>
       </c>
       <c r="C29" t="str">
         <v>Feb 4 2023</v>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>A110886</v>
+        <v>A110863</v>
       </c>
       <c r="B30" t="str">
-        <v>Dodong</v>
+        <v>Dante</v>
       </c>
       <c r="C30" t="str">
         <v>Feb 4 2023</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>A110863</v>
+        <v>A110264</v>
       </c>
       <c r="B31" t="str">
-        <v>Dante</v>
+        <v>Dannny</v>
       </c>
       <c r="C31" t="str">
         <v>Feb 4 2023</v>
@@ -1294,10 +1294,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>A110264</v>
+        <v>A110145</v>
       </c>
       <c r="B32" t="str">
-        <v>Dannny</v>
+        <v>Kenekennene</v>
       </c>
       <c r="C32" t="str">
         <v>Feb 4 2023</v>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>A110145</v>
+        <v>A110465</v>
       </c>
       <c r="B33" t="str">
-        <v>Kenekennene</v>
+        <v>Derotg</v>
       </c>
       <c r="C33" t="str">
         <v>Feb 4 2023</v>
@@ -1352,16 +1352,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>A110465</v>
+        <v>A110386</v>
       </c>
       <c r="B34" t="str">
-        <v>Derotg</v>
+        <v>Albert Cabs</v>
       </c>
       <c r="C34" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 5 2023</v>
       </c>
       <c r="D34" t="str">
-        <v>Mar 04 2023</v>
+        <v>Apr 05 2023</v>
       </c>
       <c r="E34" t="str">
         <v>Monthly</v>
@@ -1370,10 +1370,10 @@
         <v>1000</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I34" t="str">
         <v>0</v>
